--- a/Adm/Exel_Importer/updated_countries_iso_codes_shipping.xlsx
+++ b/Adm/Exel_Importer/updated_countries_iso_codes_shipping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Cruz\Documents\GitHub\Voidwomb\Adm\Exel_Importer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E7E6F-BE18-4F9B-9F7A-E9FB93A60339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7124A5-DEE1-46A4-BD5F-1EE77976F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>Nome do País</t>
   </si>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>ZW</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1571,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,6 +2893,9 @@
       <c r="A120" t="s">
         <v>121</v>
       </c>
+      <c r="B120" t="s">
+        <v>394</v>
+      </c>
       <c r="C120">
         <v>6.5</v>
       </c>
